--- a/DETERMINANTE AMBIENTE REGULATÓRIO/cnds_municipais.xlsx
+++ b/DETERMINANTE AMBIENTE REGULATÓRIO/cnds_municipais.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba158c18d2df68b8/Área de Trabalho/ICE-23/DETERMINANTE AMBIENTE REGULATÓRIO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar.albuquerque\Desktop\ICE-23\DETERMINANTE AMBIENTE REGULATÓRIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{5123A859-5FB7-4FEF-B52E-1ADFEB04EC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87F4A92A-F499-41A0-B9AF-4100AFE383B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0A26E057-76B2-4CF2-B119-2CD3E1D01442}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="141">
   <si>
     <t>CNDs Municipais</t>
   </si>
@@ -434,9 +433,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>Não foi encontrada nenhuma referência ao termo no site</t>
   </si>
   <si>
@@ -450,12 +446,24 @@
   </si>
   <si>
     <t>Tem emição de quitação mas não de CND</t>
+  </si>
+  <si>
+    <t>Não foi encontrada nenhuma referência ao termo no site, somente de quitação de ITBI</t>
+  </si>
+  <si>
+    <t>Site foi hackeado dia 15/08/2022 e desde então não foi possível ver com clareza os serviços, porém pelas informações disponíveis foi entendido que para esse tipo de serviço o atendimento somente é presencial</t>
+  </si>
+  <si>
+    <t>Tem uma seção no site referente a emissão de certidões, porém ao clicar nela o site da erro não abre nada. Foram feitas algumas tentativas durante a construção desse relatório e coleta dos dados.</t>
+  </si>
+  <si>
+    <t>Seção de serviços online fora do ar durante todo o período da coleta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +514,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -520,17 +528,13 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,18 +550,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02B28E17-BD63-4E21-A037-FDC58D802D00}" name="Tabela1" displayName="Tabela1" ref="A1:F102" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:F102" xr:uid="{02B28E17-BD63-4E21-A037-FDC58D802D00}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E102" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E102"/>
+  <sortState ref="A2:C102">
     <sortCondition ref="A1:A102"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E0D23F0D-62D8-4A24-8874-82BFA064D9A2}" name="Município" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2634014E-BC8F-4455-86B4-FD74E35FBDF0}" name="UF" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B6D1C9D1-86DF-4061-B8C9-D4EA269B683A}" name="CNDs Municipais" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{286C2F3F-ACF8-459F-A090-B8E33CCD8AAE}" name="2022" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6A96BC6F-F128-4A74-A3C3-DEEA1D353DEB}" name="2023" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{CCF9555B-1929-412E-9D73-52B945C1D47B}" name="Motivo" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Município" dataDxfId="4"/>
+    <tableColumn id="2" name="UF" dataDxfId="3"/>
+    <tableColumn id="3" name="CNDs Municipais" dataDxfId="2"/>
+    <tableColumn id="5" name="2022" dataDxfId="1"/>
+    <tableColumn id="7" name="Motivo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,11 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DD8BFA-2BDF-411E-8983-8FF1463884F1}">
-  <dimension ref="A1:F102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +876,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -887,13 +890,10 @@
         <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -907,9 +907,8 @@
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -919,13 +918,14 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>93</v>
       </c>
@@ -935,13 +935,12 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -951,13 +950,14 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
@@ -967,13 +967,12 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -987,9 +986,8 @@
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -1002,12 +1000,11 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1021,9 +1018,8 @@
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
@@ -1036,12 +1032,11 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1051,13 +1046,12 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -1067,13 +1061,12 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
@@ -1086,12 +1079,11 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>114</v>
       </c>
@@ -1104,12 +1096,11 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
@@ -1122,12 +1113,11 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1141,9 +1131,8 @@
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1157,9 +1146,8 @@
         <v>1</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1172,12 +1160,11 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1191,9 +1178,8 @@
         <v>1</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
@@ -1206,12 +1192,11 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -1225,9 +1210,8 @@
         <v>1</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>117</v>
       </c>
@@ -1241,9 +1225,8 @@
         <v>1</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1253,13 +1236,12 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -1269,13 +1251,12 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1289,9 +1270,8 @@
         <v>1</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1301,13 +1281,12 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1317,13 +1296,12 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1333,13 +1311,12 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -1349,13 +1326,12 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
@@ -1365,13 +1341,12 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
@@ -1381,13 +1356,12 @@
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1401,9 +1375,8 @@
         <v>1</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -1413,13 +1386,12 @@
       <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -1429,13 +1401,12 @@
       <c r="C34" s="2">
         <v>1</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
@@ -1445,13 +1416,12 @@
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
@@ -1465,9 +1435,8 @@
         <v>1</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>110</v>
       </c>
@@ -1481,9 +1450,8 @@
         <v>1</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>121</v>
       </c>
@@ -1496,12 +1464,11 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>129</v>
       </c>
@@ -1514,12 +1481,11 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>122</v>
       </c>
@@ -1533,9 +1499,8 @@
         <v>1</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -1549,9 +1514,8 @@
         <v>1</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
@@ -1565,9 +1529,8 @@
         <v>1</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -1580,12 +1543,11 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
@@ -1599,9 +1561,8 @@
         <v>1</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
@@ -1615,9 +1576,8 @@
         <v>1</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -1631,9 +1591,8 @@
         <v>1</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -1647,9 +1606,8 @@
         <v>1</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -1663,9 +1621,8 @@
         <v>1</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -1679,9 +1636,8 @@
         <v>1</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>119</v>
       </c>
@@ -1695,9 +1651,8 @@
         <v>1</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>38</v>
       </c>
@@ -1711,9 +1666,8 @@
         <v>1</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
@@ -1727,9 +1681,8 @@
         <v>1</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>80</v>
       </c>
@@ -1743,9 +1696,8 @@
         <v>1</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>88</v>
       </c>
@@ -1759,9 +1711,8 @@
         <v>0</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
@@ -1774,12 +1725,11 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
@@ -1792,12 +1742,11 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>19</v>
       </c>
@@ -1811,9 +1760,8 @@
         <v>1</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>113</v>
       </c>
@@ -1827,9 +1775,8 @@
         <v>1</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>106</v>
       </c>
@@ -1843,9 +1790,8 @@
         <v>1</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>16</v>
       </c>
@@ -1859,9 +1805,8 @@
         <v>1</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -1875,9 +1820,8 @@
         <v>1</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>125</v>
       </c>
@@ -1891,9 +1835,8 @@
         <v>1</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>94</v>
       </c>
@@ -1907,9 +1850,8 @@
         <v>1</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>112</v>
       </c>
@@ -1919,13 +1861,12 @@
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>103</v>
       </c>
@@ -1935,13 +1876,12 @@
       <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>74</v>
       </c>
@@ -1951,11 +1891,12 @@
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>85</v>
       </c>
@@ -1965,13 +1906,12 @@
       <c r="C67" s="2">
         <v>1</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
@@ -1981,13 +1921,12 @@
       <c r="C68" s="2">
         <v>1</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>59</v>
       </c>
@@ -1997,13 +1936,12 @@
       <c r="C69" s="2">
         <v>1</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>84</v>
       </c>
@@ -2013,13 +1951,12 @@
       <c r="C70" s="2">
         <v>1</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
@@ -2029,13 +1966,12 @@
       <c r="C71" s="2">
         <v>1</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>128</v>
       </c>
@@ -2045,11 +1981,14 @@
       <c r="C72" s="2">
         <v>0</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>39</v>
       </c>
@@ -2059,13 +1998,12 @@
       <c r="C73" s="2">
         <v>1</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
@@ -2075,13 +2013,14 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,11 +2030,14 @@
       <c r="C75" s="2">
         <v>1</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>54</v>
       </c>
@@ -2105,13 +2047,12 @@
       <c r="C76" s="2">
         <v>1</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>32</v>
       </c>
@@ -2121,13 +2062,12 @@
       <c r="C77" s="2">
         <v>1</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -2137,13 +2077,12 @@
       <c r="C78" s="2">
         <v>1</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>26</v>
       </c>
@@ -2153,13 +2092,12 @@
       <c r="C79" s="2">
         <v>1</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -2169,13 +2107,12 @@
       <c r="C80" s="2">
         <v>1</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>25</v>
       </c>
@@ -2185,13 +2122,12 @@
       <c r="C81" s="2">
         <v>1</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>67</v>
       </c>
@@ -2201,13 +2137,14 @@
       <c r="C82" s="2">
         <v>0</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>127</v>
       </c>
@@ -2217,13 +2154,14 @@
       <c r="C83" s="2">
         <v>0</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -2233,13 +2171,12 @@
       <c r="C84" s="2">
         <v>1</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>22</v>
       </c>
@@ -2249,13 +2186,12 @@
       <c r="C85" s="2">
         <v>1</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>49</v>
       </c>
@@ -2265,11 +2201,14 @@
       <c r="C86" s="2">
         <v>1</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -2279,13 +2218,12 @@
       <c r="C87" s="2">
         <v>1</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
@@ -2295,13 +2233,12 @@
       <c r="C88" s="2">
         <v>1</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>126</v>
       </c>
@@ -2311,11 +2248,14 @@
       <c r="C89" s="2">
         <v>0</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
@@ -2325,13 +2265,12 @@
       <c r="C90" s="2">
         <v>1</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>47</v>
       </c>
@@ -2341,13 +2280,12 @@
       <c r="C91" s="2">
         <v>1</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>124</v>
       </c>
@@ -2357,11 +2295,14 @@
       <c r="C92" s="2">
         <v>0</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>104</v>
       </c>
@@ -2371,13 +2312,12 @@
       <c r="C93" s="2">
         <v>1</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>116</v>
       </c>
@@ -2387,13 +2327,12 @@
       <c r="C94" s="2">
         <v>1</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>111</v>
       </c>
@@ -2403,11 +2342,14 @@
       <c r="C95" s="2">
         <v>0</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>81</v>
       </c>
@@ -2417,11 +2359,12 @@
       <c r="C96" s="2">
         <v>0</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>76</v>
       </c>
@@ -2431,13 +2374,12 @@
       <c r="C97" s="2">
         <v>1</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>33</v>
       </c>
@@ -2447,13 +2389,12 @@
       <c r="C98" s="2">
         <v>1</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>28</v>
       </c>
@@ -2463,13 +2404,12 @@
       <c r="C99" s="2">
         <v>1</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>61</v>
       </c>
@@ -2479,13 +2419,12 @@
       <c r="C100" s="2">
         <v>1</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>20</v>
       </c>
@@ -2495,13 +2434,12 @@
       <c r="C101" s="2">
         <v>1</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>115</v>
       </c>
@@ -2511,9 +2449,10 @@
       <c r="C102" s="2">
         <v>1</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DETERMINANTE AMBIENTE REGULATÓRIO/cnds_municipais.xlsx
+++ b/DETERMINANTE AMBIENTE REGULATÓRIO/cnds_municipais.xlsx
@@ -454,7 +454,7 @@
     <t>Seção de serviços online fora do ar durante todo o período da coleta</t>
   </si>
   <si>
-    <t>CNDs Municipais2</t>
+    <t>CNDs Municipais</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Município" dataDxfId="3"/>
     <tableColumn id="2" name="UF" dataDxfId="2"/>
-    <tableColumn id="5" name="CNDs Municipais2" dataDxfId="1"/>
+    <tableColumn id="5" name="CNDs Municipais" dataDxfId="1"/>
     <tableColumn id="7" name="Motivo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DETERMINANTE AMBIENTE REGULATÓRIO/cnds_municipais.xlsx
+++ b/DETERMINANTE AMBIENTE REGULATÓRIO/cnds_municipais.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar.albuquerque\Desktop\ICE-23\DETERMINANTE AMBIENTE REGULATÓRIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba158c18d2df68b8/Área de Trabalho/ICE-23/DETERMINANTE AMBIENTE REGULATÓRIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D7D4336CD89D694B1658C0CF93C42312C1A4912F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9EF45AF-2613-4958-97F3-85D41AEEB075}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="2475" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -460,7 +450,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,16 +533,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:D102" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D102"/>
-  <sortState ref="A2:C102">
-    <sortCondition ref="A1:A102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:D102" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D102">
+    <sortCondition ref="D1:D102"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Município" dataDxfId="3"/>
-    <tableColumn id="2" name="UF" dataDxfId="2"/>
-    <tableColumn id="5" name="CNDs Municipais" dataDxfId="1"/>
-    <tableColumn id="7" name="Motivo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Município" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UF" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CNDs Municipais" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Motivo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D25" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,22 +901,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -937,60 +929,66 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1001,62 +999,66 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1067,57 +1069,63 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -1126,75 +1134,85 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1203,10 +1221,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1215,10 +1233,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1227,10 +1245,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1239,22 +1257,22 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1263,10 +1281,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1275,10 +1293,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -1287,10 +1305,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1299,10 +1317,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1311,10 +1329,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -1323,10 +1341,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1335,38 +1353,34 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -1375,10 +1389,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1387,10 +1401,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1399,36 +1413,34 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1437,10 +1449,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1449,10 +1461,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -1461,10 +1473,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -1473,10 +1485,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -1485,10 +1497,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1497,10 +1509,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -1509,10 +1521,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1521,10 +1533,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -1533,50 +1545,46 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1585,10 +1593,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -1597,10 +1605,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1609,10 +1617,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1621,10 +1629,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1633,10 +1641,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -1645,10 +1653,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -1657,10 +1665,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -1669,22 +1677,22 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -1693,10 +1701,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -1705,10 +1713,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -1717,10 +1725,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -1729,10 +1737,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -1741,7 +1749,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>30</v>
@@ -1753,24 +1761,22 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -1779,38 +1785,34 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -1819,7 +1821,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>14</v>
@@ -1831,10 +1833,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -1843,7 +1845,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>5</v>
@@ -1855,10 +1857,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -1867,7 +1869,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>5</v>
@@ -1879,38 +1881,34 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -1919,7 +1917,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>5</v>
@@ -1931,24 +1929,22 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -1957,7 +1953,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>5</v>
@@ -1969,24 +1965,22 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="2">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -1995,7 +1989,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>5</v>
@@ -2007,21 +2001,19 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>5</v>
@@ -2033,7 +2025,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>5</v>
@@ -2045,17 +2037,15 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
